--- a/红薯种植技术指南.xlsx
+++ b/红薯种植技术指南.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView windowHeight="17820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Unity" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,14 @@
     <sheet name="Algrithm" sheetId="3" r:id="rId3"/>
     <sheet name="RenderPipeline" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>coroutine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A coroutine allows you to spread tasks across several frames. In Unity, a coroutine is a method that can pause execution and return control to Unity but then continue where it left off on the following frame.
@@ -28,66 +27,428 @@
 In situations where you would like to use a method call to contain a procedural animation or a sequence of events over time, you can use a coroutine.
 However, it’s important to remember that coroutines aren’t threads. Synchronous operations that run within a coroutine still execute on the main thread. If you want to reduce the amount of CPU time spent on the main thread, it’s just as important to avoid blocking operations in coroutines as in any other script code. If you want to use multi-threaded code within Unity, consider the C# Job System.
 It’s best to use coroutines if you need to deal with long asynchronous operations, such as waiting for HTTP transfers, asset loads, or file I/O to complete.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多协程还是在同一个线程里运行的，适用于短时每帧更新或者每隔一段固定时间更新——如果是长时每帧更新，需要使用update或者lateUpdate</t>
+  </si>
+  <si>
+    <t>active &amp; enabled</t>
+  </si>
+  <si>
+    <t>active是gameObject的属性，分为activeSelf和activeInHierarchy，前者为自身是否被激活，后者为go在Unity内是否激活（需要其所有父亲祖先都被激活）。不激活的go看不见。Enabled是monoBehaviour的属性，控制的是go的某个组件。打开的monoBehaviour会更新。Enabled和组件左上角的小勾等价。Disable一个组件不会停下进行中的coroutine,但是deactivate go会导致其停止。</t>
   </si>
   <si>
     <t>Ienumerable&lt;T&gt; F()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和yield return一起使用，返回可迭代的迭代项；在迭代器中，每一次yield return之后程序会暂停，然后等待返回的项目被调用迭代者处理；下次一迭代被调用时，程序从上一次yield return的位置继续运行，直到这一次yield return, yield break或者迭代结束。</t>
   </si>
   <si>
     <t>foreach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 创立迭代器 2. 遍历并依次返回可迭代对象的所有内容 3.销毁迭代器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和yield return一起使用，返回可迭代的迭代项；在迭代器中，每一次yield return之后程序会暂停，然后等待返回的项目被调用迭代者处理；下次一迭代被调用时，程序从上一次yield return的位置继续运行，直到这一次yield return, yield break或者迭代结束。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active &amp; enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active是gameObject的属性，分为activeSelf和activeInHierarchy，前者为自身是否被激活，后者为go在Unity内是否激活（需要其所有父亲祖先都被激活）。不激活的go看不见。Enabled是monoBehaviour的属性，控制的是go的某个组件。打开的monoBehaviour会更新。Enabled和组件左上角的小勾等价。Disable一个组件不会停下进行中的coroutine,但是deactivate go会导致其停止。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多协程还是在同一个线程里运行的，适用于短时每帧更新或者每隔一段固定时间更新——如果是长时每帧更新，需要使用update或者lateUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abstract class</t>
+  </si>
+  <si>
+    <t>1. 抽象类，无法被实例化，目的是被继承；可以继承别的类，抽象类继承虚方法时可以用抽象方法override。抽象类有正常的构造函数，可以用于在被继承后初始化其成员。
+2. 只有抽象类可以有抽象方法；抽象类可以有普通方法；</t>
+  </si>
+  <si>
+    <t>static class</t>
+  </si>
+  <si>
+    <t>静态类，成员全部都是静态的，常用于做工具类；继承自Object，无法被继承，无法被实例化；有静态构造函数；static field与cosnt的相似点是都是从类名（而不是某个实例）区别是const不能被改变（值或引用对象），static可以。</t>
+  </si>
+  <si>
+    <t>virtual</t>
+  </si>
+  <si>
+    <t>虚成员、方法、索引等等，代表其可以被继承的函数重写（也可以不重写，区别于抽象函数）。</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Attribute &amp; Reflection</t>
+  </si>
+  <si>
+    <t>Attribute是继承了System.Attribute的类，包含了自定义的tag信息，用于在assembly内定位类、方法、委托等等；在对应目标类、方法等等上一行用中括号使用；通过识别不同的Attribute可以调用一类方法、类、委托等等，实现更丰富的功能。</t>
+  </si>
+  <si>
+    <t>ArrayList &amp; List</t>
+  </si>
+  <si>
+    <t>ArrayList可以装不同种类的元素，相当于List&lt;Object&gt;，而List&lt;T&gt;只能装同一类元素；List&lt;Object&gt;性能更佳。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -95,9 +456,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -105,17 +708,61 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -164,7 +811,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,7 +846,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,27 +1049,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="20.4416666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="94.775" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.25">
+    <row r="1" ht="256.5" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,84 +1077,136 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="2" ht="54" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="20.4416666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="119.625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="1" ht="40.5" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>